--- a/public/excel/0.8.xlsx
+++ b/public/excel/0.8.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0.8_aisi_304" sheetId="14" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Окончание дымох.</t>
   </si>
   <si>
-    <t>Элементы</t>
-  </si>
-  <si>
     <t>Труба 0,5м нерж\нерж</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Колено 45 нерж\оц</t>
+  </si>
+  <si>
+    <t>elements</t>
   </si>
 </sst>
 </file>
@@ -1155,9 +1155,7 @@
   </sheetPr>
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="138" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView zoomScale="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1166,7 +1164,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B1" s="7">
         <v>100</v>
@@ -1402,7 +1400,7 @@
     </row>
     <row r="5" spans="1:19" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="10">
         <v>292</v>
@@ -1461,7 +1459,7 @@
     </row>
     <row r="6" spans="1:19" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="10">
         <v>137</v>
@@ -1520,7 +1518,7 @@
     </row>
     <row r="7" spans="1:19" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="10">
         <v>348</v>
@@ -1579,7 +1577,7 @@
     </row>
     <row r="8" spans="1:19" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="10">
         <v>409</v>
@@ -1882,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1893,72 +1891,72 @@
   <sheetData>
     <row r="1" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="11">
         <v>640.32000000000005</v>
@@ -2023,7 +2021,7 @@
     </row>
     <row r="3" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="11">
         <v>498.64000000000004</v>
@@ -2088,7 +2086,7 @@
     </row>
     <row r="4" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="11">
         <v>401.12</v>
@@ -2153,7 +2151,7 @@
     </row>
     <row r="5" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="11">
         <v>302.68</v>
@@ -2218,7 +2216,7 @@
     </row>
     <row r="6" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="11">
         <v>272</v>
@@ -2283,7 +2281,7 @@
     </row>
     <row r="7" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="11">
         <v>223</v>
@@ -2348,7 +2346,7 @@
     </row>
     <row r="8" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="11">
         <v>800.58089763779526</v>
@@ -2413,7 +2411,7 @@
     </row>
     <row r="9" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="11">
         <v>671.58089763779526</v>
@@ -2478,7 +2476,7 @@
     </row>
     <row r="10" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="11">
         <v>980.9656535433071</v>
@@ -2543,7 +2541,7 @@
     </row>
     <row r="11" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="11">
         <v>820.9656535433071</v>
@@ -2608,7 +2606,7 @@
     </row>
     <row r="12" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="11">
         <v>740</v>
@@ -2673,7 +2671,7 @@
     </row>
     <row r="13" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="11">
         <v>625</v>
@@ -2738,7 +2736,7 @@
     </row>
     <row r="14" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="11">
         <v>407.2</v>
@@ -2803,7 +2801,7 @@
     </row>
     <row r="15" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="11">
         <v>344.2</v>
@@ -2868,7 +2866,7 @@
     </row>
     <row r="16" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="11">
         <v>696</v>
@@ -2933,7 +2931,7 @@
     </row>
     <row r="17" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="11">
         <v>567</v>
@@ -2998,7 +2996,7 @@
     </row>
     <row r="18" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="11">
         <v>297</v>
@@ -3063,7 +3061,7 @@
     </row>
     <row r="19" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="11">
         <v>321</v>
@@ -3128,7 +3126,7 @@
     </row>
     <row r="20" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="11">
         <v>302</v>
@@ -3193,7 +3191,7 @@
     </row>
     <row r="21" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="11">
         <v>264</v>
@@ -3232,19 +3230,19 @@
         <v>667</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S21" s="11">
         <v>312</v>

--- a/public/excel/0.8.xlsx
+++ b/public/excel/0.8.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27417"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400"/>
   </bookViews>
   <sheets>
     <sheet name="0.8_aisi_304" sheetId="14" r:id="rId1"/>
@@ -33,12 +33,6 @@
     <t>Труба 1м</t>
   </si>
   <si>
-    <t>Труба 0,5м</t>
-  </si>
-  <si>
-    <t>Труба 0,3м</t>
-  </si>
-  <si>
     <t>Грибок</t>
   </si>
   <si>
@@ -51,12 +45,6 @@
     <t>Окончание дымох.</t>
   </si>
   <si>
-    <t>Труба 0,5м нерж\нерж</t>
-  </si>
-  <si>
-    <t>Труба 0,25м нерж\нерж</t>
-  </si>
-  <si>
     <t>Ревизия нерж\нерж</t>
   </si>
   <si>
@@ -132,61 +120,73 @@
     <t>130-230</t>
   </si>
   <si>
-    <t>Колено 90</t>
-  </si>
-  <si>
-    <t>Колено 45</t>
-  </si>
-  <si>
-    <t>Тройник 87</t>
-  </si>
-  <si>
-    <t>Тройник 45</t>
+    <t>Труба 1м нерж\оц</t>
+  </si>
+  <si>
+    <t>Ревизия нерж\оц</t>
+  </si>
+  <si>
+    <t>Конус термо нерж\оц</t>
+  </si>
+  <si>
+    <t>elements</t>
   </si>
   <si>
     <t>Труба 1м нерж\нерж</t>
   </si>
   <si>
-    <t>Труба 1м нерж\оц</t>
-  </si>
-  <si>
-    <t>Труба 0,5м нерж\оц</t>
-  </si>
-  <si>
-    <t>Труба 0,25м нерж\оц</t>
-  </si>
-  <si>
-    <t>Ревизия нерж\оц</t>
-  </si>
-  <si>
-    <t>Конус термо нерж\оц</t>
-  </si>
-  <si>
-    <t>Тройник 87 нерж\нерж</t>
-  </si>
-  <si>
-    <t>Тройник 87 нерж\оц</t>
-  </si>
-  <si>
-    <t>Тройник 45 нерж\нерж</t>
-  </si>
-  <si>
-    <t>Тройник 45 нерж\оц</t>
-  </si>
-  <si>
-    <t>Колено 90 нерж\нерж</t>
-  </si>
-  <si>
-    <t>Колено 90 нерж\оц</t>
-  </si>
-  <si>
-    <t>Колено 45 нерж\нерж</t>
-  </si>
-  <si>
-    <t>Колено 45 нерж\оц</t>
-  </si>
-  <si>
-    <t>elements</t>
+    <t>Тройник 87* нерж\нерж</t>
+  </si>
+  <si>
+    <t>Тройник 87* нерж\оц</t>
+  </si>
+  <si>
+    <t>Тройник 45* нерж\нерж</t>
+  </si>
+  <si>
+    <t>Тройник 45* нерж\оц</t>
+  </si>
+  <si>
+    <t>Колено 90* нерж\нерж</t>
+  </si>
+  <si>
+    <t>Колено 90* нерж\оц</t>
+  </si>
+  <si>
+    <t>Колено 45* нерж\нерж</t>
+  </si>
+  <si>
+    <t>Колено 45* нерж\оц</t>
+  </si>
+  <si>
+    <t>Колено 90*</t>
+  </si>
+  <si>
+    <t>Колено 45*</t>
+  </si>
+  <si>
+    <t>Тройник 87*</t>
+  </si>
+  <si>
+    <t>Тройник 45*</t>
+  </si>
+  <si>
+    <t>Труба 0.5м</t>
+  </si>
+  <si>
+    <t>Труба 0.3м</t>
+  </si>
+  <si>
+    <t>Труба 0.5м нерж\нерж</t>
+  </si>
+  <si>
+    <t>Труба 0.5м нерж\оц</t>
+  </si>
+  <si>
+    <t>Труба 0.25м нерж\нерж</t>
+  </si>
+  <si>
+    <t>Труба 0.25м нерж\оц</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1155,9 @@
   </sheetPr>
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1164,7 +1166,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B1" s="7">
         <v>100</v>
@@ -1282,7 +1284,7 @@
     </row>
     <row r="3" spans="1:19" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B3" s="10">
         <v>159.16</v>
@@ -1341,7 +1343,7 @@
     </row>
     <row r="4" spans="1:19" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B4" s="10">
         <v>119</v>
@@ -1400,7 +1402,7 @@
     </row>
     <row r="5" spans="1:19" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B5" s="10">
         <v>292</v>
@@ -1459,7 +1461,7 @@
     </row>
     <row r="6" spans="1:19" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B6" s="10">
         <v>137</v>
@@ -1518,7 +1520,7 @@
     </row>
     <row r="7" spans="1:19" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B7" s="10">
         <v>348</v>
@@ -1577,7 +1579,7 @@
     </row>
     <row r="8" spans="1:19" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B8" s="10">
         <v>409</v>
@@ -1636,7 +1638,7 @@
     </row>
     <row r="9" spans="1:19" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" s="10">
         <v>206</v>
@@ -1695,7 +1697,7 @@
     </row>
     <row r="10" spans="1:19" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" s="10">
         <v>258</v>
@@ -1754,7 +1756,7 @@
     </row>
     <row r="11" spans="1:19" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="10">
         <v>134</v>
@@ -1813,7 +1815,7 @@
     </row>
     <row r="12" spans="1:19" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="10">
         <v>480</v>
@@ -1880,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1891,72 +1893,72 @@
   <sheetData>
     <row r="1" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" s="11">
         <v>640.32000000000005</v>
@@ -2021,7 +2023,7 @@
     </row>
     <row r="3" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B3" s="11">
         <v>498.64000000000004</v>
@@ -2086,7 +2088,7 @@
     </row>
     <row r="4" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B4" s="11">
         <v>401.12</v>
@@ -2151,7 +2153,7 @@
     </row>
     <row r="5" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B5" s="11">
         <v>302.68</v>
@@ -2216,7 +2218,7 @@
     </row>
     <row r="6" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B6" s="11">
         <v>272</v>
@@ -2281,7 +2283,7 @@
     </row>
     <row r="7" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B7" s="11">
         <v>223</v>
@@ -2346,7 +2348,7 @@
     </row>
     <row r="8" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B8" s="11">
         <v>800.58089763779526</v>
@@ -2411,7 +2413,7 @@
     </row>
     <row r="9" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B9" s="11">
         <v>671.58089763779526</v>
@@ -2476,7 +2478,7 @@
     </row>
     <row r="10" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B10" s="11">
         <v>980.9656535433071</v>
@@ -2541,7 +2543,7 @@
     </row>
     <row r="11" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B11" s="11">
         <v>820.9656535433071</v>
@@ -2606,7 +2608,7 @@
     </row>
     <row r="12" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B12" s="11">
         <v>740</v>
@@ -2671,7 +2673,7 @@
     </row>
     <row r="13" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B13" s="11">
         <v>625</v>
@@ -2736,7 +2738,7 @@
     </row>
     <row r="14" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B14" s="11">
         <v>407.2</v>
@@ -2801,7 +2803,7 @@
     </row>
     <row r="15" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B15" s="11">
         <v>344.2</v>
@@ -2866,7 +2868,7 @@
     </row>
     <row r="16" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B16" s="11">
         <v>696</v>
@@ -2931,7 +2933,7 @@
     </row>
     <row r="17" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B17" s="11">
         <v>567</v>
@@ -2996,7 +2998,7 @@
     </row>
     <row r="18" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B18" s="11">
         <v>297</v>
@@ -3061,7 +3063,7 @@
     </row>
     <row r="19" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B19" s="11">
         <v>321</v>
@@ -3126,7 +3128,7 @@
     </row>
     <row r="20" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B20" s="11">
         <v>302</v>
@@ -3191,7 +3193,7 @@
     </row>
     <row r="21" spans="1:21" ht="19" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B21" s="11">
         <v>264</v>
@@ -3230,19 +3232,19 @@
         <v>667</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S21" s="11">
         <v>312</v>
